--- a/plots/avgowd.xlsx
+++ b/plots/avgowd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A8B59-D63E-F649-8D7E-EF49B300F71D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A08A4C-09AD-994D-AE74-62DD85656F4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{0D049989-1688-F547-8823-5F8A97260709}"/>
   </bookViews>
@@ -16,12 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1677</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1677</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$1677</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$1677</definedName>
     <definedName name="avgowd_out" localSheetId="0">Sheet1!$A$2:$B$1677</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -35,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{669CA6E2-1F92-7144-9915-ACF3DFE253D6}" name="avgowd_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out/avgowd_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="avgowd_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out/avgowd_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -55,7 +49,7 @@
     <t>OWD</t>
   </si>
   <si>
-    <t>Expected</t>
+    <t>Theoretical</t>
   </si>
 </sst>
 </file>
@@ -10312,7 +10306,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Expected</c:v>
+                  <c:v>Theoretical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20421,7 +20415,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -20461,7 +20454,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -20709,12 +20702,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -20840,7 +20828,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -30944,7 +30932,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Expected</c:v>
+                  <c:v>Theoretical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -41092,7 +41080,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -41341,12 +41329,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -42485,16 +42468,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42521,16 +42504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42561,7 +42544,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="avgowd_out" connectionId="1" xr16:uid="{A4D25C6D-A2C9-E044-8D45-3CAB338F359A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="avgowd_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42863,8 +42846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89A84E7-7C52-DC4B-B9DC-0C9B9B901EB7}">
   <dimension ref="A1:C1677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/avgowd.xlsx
+++ b/plots/avgowd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A08A4C-09AD-994D-AE74-62DD85656F4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2D9C21-5730-1241-B9E2-9B8235DF642D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{0D049989-1688-F547-8823-5F8A97260709}"/>
   </bookViews>
@@ -16,6 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1677</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1677</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1677</definedName>
     <definedName name="avgowd_out" localSheetId="0">Sheet1!$A$2:$B$1677</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -49,7 +54,7 @@
     <t>OWD</t>
   </si>
   <si>
-    <t>Theoretical</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -125,7 +130,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -138,10 +143,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Average One Way Delay</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -158,7 +163,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10306,7 +10311,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Theoretical</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20440,7 +20445,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20453,7 +20458,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -20472,7 +20477,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -20558,7 +20563,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20571,7 +20576,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -20590,7 +20595,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -20670,7 +20675,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -20746,7 +20751,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -20759,14 +20764,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Detailed</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Average One Way Delay</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -20783,7 +20788,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -30932,7 +30937,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Theoretical</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -41066,7 +41071,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -41079,7 +41084,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -41098,7 +41103,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -41185,7 +41190,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -41198,7 +41203,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -41217,7 +41222,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -41297,7 +41302,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -42471,13 +42476,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42846,8 +42851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89A84E7-7C52-DC4B-B9DC-0C9B9B901EB7}">
   <dimension ref="A1:C1677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
